--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/Bene_Mng_Login.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/Bene_Mng_Login.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Case</t>
   </si>
@@ -48,10 +48,19 @@
     <t>When user id and password are valid for Bene_Addition</t>
   </si>
   <si>
-    <t>When user id and password are valid multibill for Bene_Deletion</t>
-  </si>
-  <si>
-    <t>When user id and password are valid multibill for Bene_Updation</t>
+    <t>When user id and password are valid for Bene_Deletion</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for Bene_Updation</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for Bene_Verification_pay</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for Bene_Verification_send</t>
+  </si>
+  <si>
+    <t>Beneverification</t>
   </si>
 </sst>
 </file>
@@ -369,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +448,31 @@
         <v>12345678</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>12345678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/Bene_Mng_Login.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/Bene_Mng_Login.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Case</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Beneverification</t>
+  </si>
+  <si>
+    <t>Dango</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +469,9 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
